--- a/DB/Lista de Movimientos - copia.xlsx
+++ b/DB/Lista de Movimientos - copia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="464">
   <si>
     <t>REF NARCISO = Notas adicionales</t>
   </si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>Despejar</t>
+  </si>
+  <si>
+    <t>quita tramparoca y etc</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1792,10 @@
   <dimension ref="A1:AC377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C116" sqref="C116"/>
+      <selection pane="bottomRight" activeCell="AC117" sqref="AC117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10140,28 +10143,72 @@
       <c r="B116" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
+      <c r="C116" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="H116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
-      <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
-      <c r="W116" s="3"/>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
+        <v>15</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L116" s="3">
+        <v>1</v>
+      </c>
+      <c r="M116" s="3">
+        <v>0</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O116" s="3">
+        <v>0</v>
+      </c>
+      <c r="P116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>0</v>
+      </c>
+      <c r="R116" s="3">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3">
+        <v>0</v>
+      </c>
+      <c r="T116" s="3">
+        <v>0</v>
+      </c>
+      <c r="U116" s="3">
+        <v>4</v>
+      </c>
+      <c r="V116" s="3">
+        <v>0</v>
+      </c>
+      <c r="W116" s="3">
+        <v>0</v>
+      </c>
       <c r="X116" s="3"/>
-      <c r="AC116" s="3"/>
+      <c r="AC116" s="3" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="11">

--- a/DB/Lista de Movimientos - copia.xlsx
+++ b/DB/Lista de Movimientos - copia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narciso\source\repos\monster-Feudal\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1792,10 +1792,10 @@
   <dimension ref="A1:AC377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC117" sqref="AC117"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
